--- a/Characters/CharacterIDs.xlsx
+++ b/Characters/CharacterIDs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28785" windowHeight="12975"/>
+    <workbookView windowWidth="28800" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>ID</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Get Code</t>
   </si>
   <si>
-    <t>/give ID</t>
-  </si>
-  <si>
     <t>三月七</t>
   </si>
   <si>
@@ -178,7 +175,7 @@
     <t>银枝</t>
   </si>
   <si>
-    <t>阮·梅</t>
+    <t>阮•梅</t>
   </si>
   <si>
     <t>砂金</t>
@@ -244,9 +241,8 @@
     <font>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1161,18 +1157,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="22.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="24.75" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="16384" width="18.625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="18.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="18.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1181,9 +1179,6 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1191,10 +1186,10 @@
         <v>1001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="str">
-        <f>SUBSTITUTE(D$1,"ID",A2)</f>
+        <f>CONCATENATE("/give ",A2)</f>
         <v>/give 1001</v>
       </c>
     </row>
@@ -1203,10 +1198,10 @@
         <v>1002</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="str">
-        <f t="shared" ref="C3:C12" si="0">SUBSTITUTE(D$1,"ID",A3)</f>
+        <f t="shared" ref="C3:C34" si="0">CONCATENATE("/give ",A3)</f>
         <v>/give 1002</v>
       </c>
     </row>
@@ -1215,7 +1210,7 @@
         <v>1003</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1227,7 +1222,7 @@
         <v>1004</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1239,7 +1234,7 @@
         <v>1005</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1251,7 +1246,7 @@
         <v>1006</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1263,7 +1258,7 @@
         <v>1008</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1275,7 +1270,7 @@
         <v>1009</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1287,7 +1282,7 @@
         <v>1013</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1299,7 +1294,7 @@
         <v>1101</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1311,7 +1306,7 @@
         <v>1102</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1323,10 +1318,10 @@
         <v>1103</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1" t="str">
-        <f t="shared" ref="C13:C44" si="1">SUBSTITUTE(D$1,"ID",A13)</f>
+        <f t="shared" si="0"/>
         <v>/give 1103</v>
       </c>
     </row>
@@ -1335,10 +1330,10 @@
         <v>1104</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>/give 1104</v>
       </c>
     </row>
@@ -1347,10 +1342,10 @@
         <v>1105</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>/give 1105</v>
       </c>
     </row>
@@ -1359,10 +1354,10 @@
         <v>1106</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>/give 1106</v>
       </c>
     </row>
@@ -1371,10 +1366,10 @@
         <v>1107</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>/give 1107</v>
       </c>
     </row>
@@ -1383,10 +1378,10 @@
         <v>1108</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>/give 1108</v>
       </c>
     </row>
@@ -1395,10 +1390,10 @@
         <v>1109</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>/give 1109</v>
       </c>
     </row>
@@ -1407,10 +1402,10 @@
         <v>1110</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>/give 1110</v>
       </c>
     </row>
@@ -1419,10 +1414,10 @@
         <v>1111</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>/give 1111</v>
       </c>
     </row>
@@ -1431,10 +1426,10 @@
         <v>1112</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>/give 1112</v>
       </c>
     </row>
@@ -1443,10 +1438,10 @@
         <v>1201</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>/give 1201</v>
       </c>
     </row>
@@ -1455,10 +1450,10 @@
         <v>1202</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>/give 1202</v>
       </c>
     </row>
@@ -1467,10 +1462,10 @@
         <v>1203</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>/give 1203</v>
       </c>
     </row>
@@ -1479,10 +1474,10 @@
         <v>1204</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>/give 1204</v>
       </c>
     </row>
@@ -1491,10 +1486,10 @@
         <v>1205</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>/give 1205</v>
       </c>
     </row>
@@ -1503,10 +1498,10 @@
         <v>1206</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>/give 1206</v>
       </c>
     </row>
@@ -1515,10 +1510,10 @@
         <v>1207</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>/give 1207</v>
       </c>
     </row>
@@ -1527,10 +1522,10 @@
         <v>1208</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>/give 1208</v>
       </c>
     </row>
@@ -1539,10 +1534,10 @@
         <v>1209</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>/give 1209</v>
       </c>
     </row>
@@ -1551,10 +1546,10 @@
         <v>1210</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>/give 1210</v>
       </c>
     </row>
@@ -1563,10 +1558,10 @@
         <v>1211</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>/give 1211</v>
       </c>
     </row>
@@ -1575,10 +1570,10 @@
         <v>1212</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>/give 1212</v>
       </c>
     </row>
@@ -1587,10 +1582,10 @@
         <v>1213</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C35:C61" si="1">CONCATENATE("/give ",A35)</f>
         <v>/give 1213</v>
       </c>
     </row>
@@ -1599,7 +1594,7 @@
         <v>1214</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1611,7 +1606,7 @@
         <v>1215</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1623,7 +1618,7 @@
         <v>1217</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1635,7 +1630,7 @@
         <v>1218</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1647,7 +1642,7 @@
         <v>1220</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C40" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1659,7 +1654,7 @@
         <v>1221</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1671,7 +1666,7 @@
         <v>1222</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C42" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1683,7 +1678,7 @@
         <v>1223</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C43" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1695,7 +1690,7 @@
         <v>1225</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C44" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1707,10 +1702,10 @@
         <v>1301</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C45" s="1" t="str">
-        <f t="shared" ref="C45:C61" si="2">SUBSTITUTE(D$1,"ID",A45)</f>
+        <f t="shared" si="1"/>
         <v>/give 1301</v>
       </c>
     </row>
@@ -1719,10 +1714,10 @@
         <v>1302</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C46" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>/give 1302</v>
       </c>
     </row>
@@ -1731,10 +1726,10 @@
         <v>1303</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C47" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>/give 1303</v>
       </c>
     </row>
@@ -1743,10 +1738,10 @@
         <v>1304</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C48" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>/give 1304</v>
       </c>
     </row>
@@ -1755,10 +1750,10 @@
         <v>1305</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C49" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>/give 1305</v>
       </c>
     </row>
@@ -1767,10 +1762,10 @@
         <v>1306</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C50" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>/give 1306</v>
       </c>
     </row>
@@ -1779,10 +1774,10 @@
         <v>1307</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C51" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>/give 1307</v>
       </c>
     </row>
@@ -1791,10 +1786,10 @@
         <v>1308</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C52" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>/give 1308</v>
       </c>
     </row>
@@ -1803,10 +1798,10 @@
         <v>1309</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C53" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>/give 1309</v>
       </c>
     </row>
@@ -1815,10 +1810,10 @@
         <v>1310</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C54" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>/give 1310</v>
       </c>
     </row>
@@ -1827,10 +1822,10 @@
         <v>1312</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C55" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>/give 1312</v>
       </c>
     </row>
@@ -1839,10 +1834,10 @@
         <v>1313</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C56" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>/give 1313</v>
       </c>
     </row>
@@ -1851,10 +1846,10 @@
         <v>1314</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C57" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>/give 1314</v>
       </c>
     </row>
@@ -1863,10 +1858,10 @@
         <v>1315</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C58" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>/give 1315</v>
       </c>
     </row>
@@ -1875,10 +1870,10 @@
         <v>1317</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C59" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>/give 1317</v>
       </c>
     </row>
@@ -1887,10 +1882,10 @@
         <v>1401</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C60" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>/give 1401</v>
       </c>
     </row>
@@ -1899,10 +1894,10 @@
         <v>1402</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>/give 1402</v>
       </c>
     </row>

--- a/Characters/CharacterIDs.xlsx
+++ b/Characters/CharacterIDs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12960"/>
+    <workbookView windowWidth="28785" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>ID</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Get Code</t>
+  </si>
+  <si>
+    <t>Animation Get Code</t>
   </si>
   <si>
     <t>三月七</t>
@@ -1157,20 +1160,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="24.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="24.75" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="2" width="18.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="18.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="18.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1180,725 +1184,968 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>1001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>CONCATENATE("/give ",A2)</f>
         <v>/give 1001</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="1" t="str">
+        <f>CONCATENATE("/avatar get ",A2)</f>
+        <v>/avatar get 1001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1002</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="str">
         <f t="shared" ref="C3:C34" si="0">CONCATENATE("/give ",A3)</f>
         <v>/give 1002</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="1" t="str">
+        <f t="shared" ref="D3:D34" si="1">CONCATENATE("/avatar get ",A3)</f>
+        <v>/avatar get 1002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>1003</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/give 1003</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/avatar get 1003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>1004</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/give 1004</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/avatar get 1004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>1005</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/give 1005</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/avatar get 1005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>1006</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/give 1006</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/avatar get 1006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>1008</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/give 1008</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/avatar get 1008</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>1009</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/give 1009</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/avatar get 1009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>1013</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/give 1013</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/avatar get 1013</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>1101</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/give 1101</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/avatar get 1101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>1102</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/give 1102</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/avatar get 1102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>1103</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/give 1103</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/avatar get 1103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>1104</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/give 1104</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/avatar get 1104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>1105</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/give 1105</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/avatar get 1105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>1106</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/give 1106</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/avatar get 1106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>1107</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/give 1107</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/avatar get 1107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>1108</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/give 1108</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/avatar get 1108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>1109</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/give 1109</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/avatar get 1109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>1110</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/give 1110</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/avatar get 1110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>1111</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/give 1111</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/avatar get 1111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>1112</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/give 1112</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/avatar get 1112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>1201</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/give 1201</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/avatar get 1201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>1202</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/give 1202</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/avatar get 1202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>1203</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/give 1203</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/avatar get 1203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>1204</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/give 1204</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/avatar get 1204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>1205</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/give 1205</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/avatar get 1205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>1206</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/give 1206</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/avatar get 1206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>1207</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C29" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/give 1207</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/avatar get 1207</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>1208</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C30" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/give 1208</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/avatar get 1208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>1209</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C31" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/give 1209</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/avatar get 1209</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>1210</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C32" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/give 1210</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/avatar get 1210</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>1211</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/give 1211</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/avatar get 1211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>1212</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C34" s="1" t="str">
         <f t="shared" si="0"/>
         <v>/give 1212</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/avatar get 1212</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>1213</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C35" s="1" t="str">
-        <f t="shared" ref="C35:C61" si="1">CONCATENATE("/give ",A35)</f>
+        <f t="shared" ref="C35:C61" si="2">CONCATENATE("/give ",A35)</f>
         <v>/give 1213</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" s="1" t="str">
+        <f t="shared" ref="D35:D61" si="3">CONCATENATE("/avatar get ",A35)</f>
+        <v>/avatar get 1213</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>1214</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C36" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/give 1214</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>/avatar get 1214</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>1215</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C37" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/give 1215</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>/avatar get 1215</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>1217</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C38" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/give 1217</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>/avatar get 1217</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>1218</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C39" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/give 1218</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>/avatar get 1218</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>1220</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C40" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/give 1220</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>/avatar get 1220</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
         <v>1221</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C41" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/give 1221</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>/avatar get 1221</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1">
         <v>1222</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C42" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/give 1222</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>/avatar get 1222</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1">
         <v>1223</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C43" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/give 1223</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>/avatar get 1223</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1">
         <v>1225</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C44" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/give 1225</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>/avatar get 1225</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1">
         <v>1301</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C45" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/give 1301</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>/avatar get 1301</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1">
         <v>1302</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C46" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/give 1302</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>/avatar get 1302</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1">
         <v>1303</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C47" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/give 1303</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>/avatar get 1303</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1">
         <v>1304</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C48" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/give 1304</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>/avatar get 1304</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1">
         <v>1305</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C49" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/give 1305</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>/avatar get 1305</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1">
         <v>1306</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C50" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/give 1306</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>/avatar get 1306</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1">
         <v>1307</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C51" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/give 1307</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>/avatar get 1307</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1">
         <v>1308</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C52" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/give 1308</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>/avatar get 1308</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1">
         <v>1309</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C53" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/give 1309</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>/avatar get 1309</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1">
         <v>1310</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C54" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/give 1310</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>/avatar get 1310</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1">
         <v>1312</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C55" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/give 1312</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>/avatar get 1312</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1">
         <v>1313</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C56" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/give 1313</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>/avatar get 1313</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1">
         <v>1314</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C57" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/give 1314</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>/avatar get 1314</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1">
         <v>1315</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C58" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/give 1315</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>/avatar get 1315</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1">
         <v>1317</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C59" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/give 1317</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>/avatar get 1317</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1">
         <v>1401</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C60" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/give 1401</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>/avatar get 1401</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1">
         <v>1402</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C61" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/give 1402</v>
+      </c>
+      <c r="D61" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>/avatar get 1402</v>
       </c>
     </row>
   </sheetData>
